--- a/results/Co60/Co60_R_30_cm_Nr_2000000000_ISO_model_det2  - Unfolded Fluence Spectrum.xlsx
+++ b/results/Co60/Co60_R_30_cm_Nr_2000000000_ISO_model_det2  - Unfolded Fluence Spectrum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,40 +511,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.6829767138364</v>
+        <v>16.27395536621195</v>
       </c>
       <c r="D2" t="n">
         <v>0.00301823225217215</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008574046394687406</v>
+        <v>0.006275575909959944</v>
       </c>
       <c r="F2" t="n">
-        <v>19.12089946247587</v>
+        <v>7.070407707669703</v>
       </c>
       <c r="G2" t="n">
-        <v>17.68122790595237</v>
+        <v>3.175127501275629</v>
       </c>
       <c r="H2" t="n">
-        <v>20.45486890432072</v>
+        <v>10.58953095301975</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3240340669898868</v>
+        <v>0.3025104915278049</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2910445049548418</v>
+        <v>0.2492545487775952</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3467056220873808</v>
+        <v>0.3438127199915785</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06084524965367868</v>
+        <v>0.04320990133013451</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04908402149519318</v>
+        <v>0.0320850825649982</v>
       </c>
       <c r="N2" t="n">
-        <v>0.07227261585321976</v>
+        <v>0.05349341376574289</v>
       </c>
     </row>
     <row r="3">
@@ -557,40 +557,86 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3589057188001392</v>
+        <v>0.3589057182506037</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3038166774373344</v>
+        <v>0.3038166771491592</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3557873749964925</v>
+        <v>0.3557873748505794</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1211570172356973</v>
+        <v>0.2455320766091476</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01070810785992904</v>
+        <v>0.001619681515902877</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2881295322881186</v>
+        <v>0.575183570330392</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06953783620512234</v>
+        <v>0.2275789218708711</v>
       </c>
       <c r="J3" t="n">
-        <v>0.006563771696227594</v>
+        <v>0.001491703297717326</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1693274071458951</v>
+        <v>0.5337275622022035</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05574873623032584</v>
+        <v>0.2562564349606977</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004279237817385355</v>
+        <v>0.001715461819326484</v>
       </c>
       <c r="N3" t="n">
-        <v>0.142509533470567</v>
+        <v>0.5986381997956087</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beta + Gamma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16.63286108446255</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3068349094013313</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3620629507605393</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7.31593978427885</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.176747182791532</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11.16471452335015</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.530089413398676</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2507462520753125</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.877540282193782</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2994663362908322</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.03380054438432468</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.6521316135613515</v>
       </c>
     </row>
   </sheetData>
